--- a/DATA_goal/Junction_Flooding_217.xlsx
+++ b/DATA_goal/Junction_Flooding_217.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41649.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.74</v>
+        <v>0.47</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.55</v>
+        <v>0.75</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.02</v>
+        <v>0.4</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>67.53</v>
+        <v>6.75</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>10.14</v>
+        <v>1.01</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41649.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.65</v>
+        <v>0.46</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>65.59999999999999</v>
+        <v>6.56</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.45</v>
+        <v>1.35</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.25</v>
+        <v>0.43</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.92</v>
+        <v>0.39</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.76</v>
+        <v>0.48</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41649.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.06</v>
+        <v>0.71</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.16</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>6.41</v>
+        <v>0.64</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41649.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.75</v>
+        <v>0.48</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="N5" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.13</v>
-      </c>
       <c r="O5" s="4" t="n">
-        <v>3.81</v>
+        <v>0.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>54.25</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.47</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.52</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41649.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>20.21</v>
+        <v>2.02</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>44.42</v>
+        <v>4.44</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>36.67</v>
+        <v>3.67</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>16.09</v>
+        <v>1.61</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>58.09</v>
+        <v>5.81</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>24.97</v>
+        <v>2.5</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>11.21</v>
+        <v>1.12</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>17.19</v>
+        <v>1.72</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>18.19</v>
+        <v>1.82</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>18.88</v>
+        <v>1.89</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>22.96</v>
+        <v>2.3</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>13.32</v>
+        <v>1.33</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>237.47</v>
+        <v>23.75</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>44.89</v>
+        <v>4.49</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>14.75</v>
+        <v>1.48</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>30.17</v>
+        <v>3.02</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>16.33</v>
+        <v>1.63</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>28.88</v>
+        <v>2.89</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>19.14</v>
+        <v>1.91</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>52.4</v>
+        <v>5.24</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>18.44</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41649.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N7" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.2</v>
-      </c>
       <c r="O7" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="T7" s="4" t="n">
-        <v>5.35</v>
+        <v>0.53</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="Y7" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA7" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Z7" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.67</v>
-      </c>
       <c r="AB7" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="AE7" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AH7" s="4" t="n">
         <v>0.09</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.86</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41649.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>20.3</v>
+        <v>2.03</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>15.42</v>
+        <v>1.54</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>44.51</v>
+        <v>4.45</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>36.75</v>
+        <v>3.67</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>16.11</v>
+        <v>1.61</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>57.94</v>
+        <v>5.79</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>24.96</v>
+        <v>2.5</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.06</v>
+        <v>1.71</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>18.13</v>
+        <v>1.81</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>18.91</v>
+        <v>1.89</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>15.93</v>
+        <v>1.59</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>22.97</v>
+        <v>2.3</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>237.49</v>
+        <v>23.75</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>44.84</v>
+        <v>4.48</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>30.2</v>
+        <v>3.02</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.23</v>
+        <v>1.62</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>28.64</v>
+        <v>2.86</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>13.75</v>
+        <v>1.38</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>19.06</v>
+        <v>1.91</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>52.08</v>
+        <v>5.21</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>18.47</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41649.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>15.91</v>
+        <v>1.59</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>34.92</v>
+        <v>3.49</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>28.82</v>
+        <v>2.88</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>12.64</v>
+        <v>1.26</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>50.66</v>
+        <v>5.07</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>19.6</v>
+        <v>1.96</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>14.25</v>
+        <v>1.42</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.97</v>
+        <v>0.4</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>18.07</v>
+        <v>1.81</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10.46</v>
+        <v>1.05</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>184.88</v>
+        <v>18.49</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>35.37</v>
+        <v>3.54</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>23.81</v>
+        <v>2.38</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>24.37</v>
+        <v>2.44</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.82</v>
+        <v>1.08</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>14.98</v>
+        <v>1.5</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>45.95</v>
+        <v>4.6</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>14.5</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41649.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>15.17</v>
+        <v>1.52</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>33.28</v>
+        <v>3.33</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>27.46</v>
+        <v>2.75</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>12.04</v>
+        <v>1.2</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>47.96</v>
+        <v>4.8</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>18.67</v>
+        <v>1.87</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>13.56</v>
+        <v>1.36</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>14.13</v>
+        <v>1.41</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>175.73</v>
+        <v>17.57</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>33.67</v>
+        <v>3.37</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>22.67</v>
+        <v>2.27</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>23.03</v>
+        <v>2.3</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>10.29</v>
+        <v>1.03</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>14.26</v>
+        <v>1.43</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>43.4</v>
+        <v>4.34</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_217.xlsx
+++ b/DATA_goal/Junction_Flooding_217.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44898.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.33</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.88</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.48</v>
+        <v>34.79</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.71</v>
+        <v>27.08</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.92</v>
+        <v>39.21</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.09</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.72</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.15</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.32</v>
+        <v>3.15</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>18.72</v>
+        <v>187.2</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.55</v>
+        <v>35.47</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.3</v>
+        <v>23.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.67</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.12</v>
+        <v>11.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.44</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.51</v>
+        <v>35.15</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44898.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.2</v>
+        <v>12.01</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.6</v>
+        <v>25.98</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.05</v>
+        <v>20.5</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.68</v>
+        <v>36.83</v>
       </c>
       <c r="I3" s="4" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>1.45</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.14</v>
-      </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>13.57</v>
+        <v>135.74</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.63</v>
+        <v>26.34</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.28</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.93</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.91</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.93</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.88</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.39</v>
+        <v>33.85</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.7</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44898.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.35</v>
+        <v>23.54</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.55</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.11</v>
+        <v>51.15</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.16</v>
+        <v>41.58</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.5</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.96</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.85</v>
+        <v>28.5</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.6</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.05</v>
+        <v>20.51</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.16</v>
+        <v>21.59</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.92</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.42</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.62</v>
+        <v>26.15</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.31</v>
+        <v>273.09</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.15</v>
+        <v>51.48</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.45</v>
+        <v>34.49</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.81</v>
+        <v>18.05</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.42</v>
+        <v>34.21</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.34</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.15</v>
+        <v>21.54</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.34</v>
+        <v>63.36</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.52</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.13</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44898.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.97</v>
+        <v>19.7</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.46</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.28</v>
+        <v>42.82</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.48</v>
+        <v>34.85</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.48</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.14</v>
+        <v>61.35</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.39</v>
+        <v>23.85</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.59</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.18</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.95</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.91</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.3</v>
+        <v>13.05</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>22.73</v>
+        <v>227.32</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.31</v>
+        <v>43.14</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.89</v>
+        <v>28.93</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.51</v>
+        <v>15.14</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.96</v>
+        <v>29.62</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.16</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.14</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.8</v>
+        <v>18.04</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.59</v>
+        <v>55.87</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_217.xlsx
+++ b/DATA_goal/Junction_Flooding_217.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,58 +655,58 @@
         <v>44898.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.33</v>
+        <v>16.334</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.88</v>
+        <v>10.878</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.753</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>34.79</v>
+        <v>34.787</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.08</v>
+        <v>27.078</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.83</v>
+        <v>12.827</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>39.21</v>
+        <v>39.214</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.09</v>
+        <v>8.095000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.09</v>
+        <v>12.091</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.72</v>
+        <v>13.724</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.29</v>
+        <v>14.293</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.1</v>
+        <v>4.102</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.7</v>
+        <v>17.703</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.15</v>
+        <v>11.145</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.15</v>
+        <v>3.152</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.02</v>
+        <v>2.018</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>187.2</v>
@@ -715,43 +715,43 @@
         <v>35.47</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.04</v>
+        <v>23.043</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.67</v>
+        <v>11.665</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.07</v>
+        <v>20.069</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.34</v>
+        <v>9.335000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.22</v>
+        <v>11.223</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.44</v>
+        <v>14.442</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>3.314</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>35.15</v>
+        <v>35.145</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.32</v>
+        <v>6.324</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.75</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="3">
@@ -759,37 +759,37 @@
         <v>44898.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.01</v>
+        <v>12.011</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.34</v>
+        <v>8.343999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>1.63</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>25.98</v>
+        <v>25.981</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>20.5</v>
+        <v>20.496</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.43</v>
+        <v>9.426</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>36.83</v>
+        <v>36.832</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>14.54</v>
+        <v>14.543</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.19</v>
+        <v>6.191</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>9.031000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.36</v>
+        <v>10.361</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>10.81</v>
@@ -798,64 +798,64 @@
         <v>3.02</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.4</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.17</v>
+        <v>13.167</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.25</v>
+        <v>8.252000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.45</v>
+        <v>1.448</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>135.74</v>
+        <v>135.744</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>26.34</v>
+        <v>26.338</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>17.28</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.93</v>
+        <v>8.932</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.93</v>
+        <v>1.929</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.91</v>
+        <v>17.907</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.66</v>
+        <v>7.663</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.93</v>
+        <v>6.931</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>8.214</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.88</v>
+        <v>10.881</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>33.85</v>
+        <v>33.855</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.7</v>
+        <v>4.696</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.85</v>
+        <v>10.847</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44898.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.54</v>
+        <v>23.541</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.24</v>
+        <v>17.237</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.55</v>
+        <v>1.547</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>51.15</v>
+        <v>51.149</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>41.58</v>
+        <v>41.583</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>18.5</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>69.65000000000001</v>
+        <v>69.646</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>28.5</v>
+        <v>28.505</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.58</v>
+        <v>12.582</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.6</v>
+        <v>18.599</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.51</v>
+        <v>20.506</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.59</v>
+        <v>21.591</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.92</v>
+        <v>5.917</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.42</v>
+        <v>18.422</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>26.15</v>
+        <v>26.152</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.61</v>
+        <v>15.612</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.08</v>
+        <v>1.077</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.035</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>273.09</v>
+        <v>273.089</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>51.48</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17</v>
+        <v>17.004</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>34.49</v>
+        <v>34.489</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.05</v>
+        <v>18.055</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.87</v>
+        <v>2.871</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.21</v>
+        <v>34.207</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>15.02</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.34</v>
+        <v>13.339</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.72</v>
+        <v>15.717</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.54</v>
+        <v>21.542</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>63.36</v>
+        <v>63.364</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.52</v>
+        <v>9.516</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.26</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>17.79</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44898.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.22</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>29.12</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.98</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>18.04</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>26.76</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.38</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_217.xlsx
+++ b/DATA_goal/Junction_Flooding_217.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44898.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.7</v>
+        <v>19.697</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.46</v>
+        <v>14.463</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.21</v>
+        <v>1.209</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>42.82</v>
+        <v>42.816</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>34.85</v>
+        <v>34.846</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.48</v>
+        <v>15.477</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>61.35</v>
+        <v>61.355</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.85</v>
+        <v>23.851</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.56</v>
+        <v>10.558</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.59</v>
+        <v>15.589</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.18</v>
+        <v>17.177</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.1</v>
+        <v>18.099</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.95</v>
+        <v>4.952</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.41</v>
+        <v>15.414</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>21.91</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.05</v>
+        <v>13.048</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.821</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>227.32</v>
+        <v>227.315</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>43.14</v>
+        <v>43.145</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.23</v>
+        <v>14.228</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.93</v>
+        <v>28.929</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.14</v>
+        <v>15.142</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>2.36</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>29.62</v>
+        <v>29.621</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.57</v>
+        <v>12.568</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.16</v>
+        <v>11.157</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.14</v>
+        <v>13.136</v>
       </c>
       <c r="AD5" s="4" t="n">
+        <v>18.042</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>55.872</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>7.972</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>17.789</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44898.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>89.98</v>
+      </c>
+      <c r="U6" s="4" t="n">
         <v>18.04</v>
       </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>55.87</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>17.79</v>
+      <c r="V6" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.38</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_217.xlsx
+++ b/DATA_goal/Junction_Flooding_217.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44898.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.697</v>
+        <v>19.7</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.463</v>
+        <v>14.46</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.209</v>
+        <v>1.21</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>42.816</v>
+        <v>42.82</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>34.846</v>
+        <v>34.85</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.477</v>
+        <v>15.48</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>61.355</v>
+        <v>61.35</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.851</v>
+        <v>23.85</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.558</v>
+        <v>10.56</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.589</v>
+        <v>15.59</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.177</v>
+        <v>17.18</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.099</v>
+        <v>18.1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.952</v>
+        <v>4.95</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.414</v>
+        <v>15.41</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>21.91</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.048</v>
+        <v>13.05</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.821</v>
+        <v>0.82</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>227.315</v>
+        <v>227.32</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>43.145</v>
+        <v>43.14</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.228</v>
+        <v>14.23</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.929</v>
+        <v>28.93</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.142</v>
+        <v>15.14</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>2.36</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>29.621</v>
+        <v>29.62</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.568</v>
+        <v>12.57</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.157</v>
+        <v>11.16</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.136</v>
+        <v>13.14</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.042</v>
+        <v>18.04</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>55.872</v>
+        <v>55.87</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.972</v>
+        <v>7.97</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.789</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44898.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.22</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>29.12</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.98</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>18.04</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>26.76</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.38</v>
+        <v>17.79</v>
       </c>
     </row>
   </sheetData>
